--- a/analysis/all_sites/raw_data/Buhlen_lithic_analysis.xlsx
+++ b/analysis/all_sites/raw_data/Buhlen_lithic_analysis.xlsx
@@ -344,7 +344,7 @@
     <t xml:space="preserve">BU-030</t>
   </si>
   <si>
-    <t xml:space="preserve">Lichtenstein</t>
+    <t xml:space="preserve">Lichtenberg</t>
   </si>
   <si>
     <t xml:space="preserve">BU-031</t>
